--- a/DOKUMEN  PENDUKUNG/DATA DATA YANG HARUS DIMASUKAN/HASIL YANG AKAN DILAKSANAKAN 2015.xlsx
+++ b/DOKUMEN  PENDUKUNG/DATA DATA YANG HARUS DIMASUKAN/HASIL YANG AKAN DILAKSANAKAN 2015.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sipepeng\DOKUMEN  PENDUKUNG\DATA DATA YANG HARUS DIMASUKAN\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" tabRatio="653" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" tabRatio="653"/>
   </bookViews>
   <sheets>
     <sheet name="JALAN 2015" sheetId="1" r:id="rId1"/>
@@ -202,9 +207,6 @@
     <t>GG NYEYEREAN</t>
   </si>
   <si>
-    <t>-6.899021</t>
-  </si>
-  <si>
     <t>-6.898537</t>
   </si>
   <si>
@@ -323,6 +325,9 @@
   </si>
   <si>
     <t>FORMULIR VALIDASI LAPANGAN KEGIATAN YANG TELAH DILAKSANAKAN SUMUR DANGKAL  2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -929,6 +934,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -976,7 +984,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1011,7 +1019,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1222,8 +1230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1530,16 +1538,16 @@
         <v>1</v>
       </c>
       <c r="G9" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="J9" s="31" t="s">
         <v>59</v>
-      </c>
-      <c r="I9" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="J9" s="31" t="s">
-        <v>60</v>
       </c>
       <c r="K9" s="29"/>
       <c r="L9" s="29" t="s">
@@ -1680,8 +1688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1824,7 +1832,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E5" s="23">
         <v>583</v>
@@ -1833,19 +1841,19 @@
         <v>1.5</v>
       </c>
       <c r="G5" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="I5" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="28" t="s">
+      <c r="J5" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="J5" s="28" t="s">
+      <c r="K5" s="42" t="s">
         <v>65</v>
-      </c>
-      <c r="K5" s="42" t="s">
-        <v>66</v>
       </c>
       <c r="L5" s="23"/>
       <c r="M5" s="23" t="s">
@@ -1867,7 +1875,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E6" s="29">
         <v>200</v>
@@ -1879,16 +1887,16 @@
         <v>1</v>
       </c>
       <c r="H6" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="K6" s="31" t="s">
         <v>70</v>
-      </c>
-      <c r="J6" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="K6" s="31" t="s">
-        <v>71</v>
       </c>
       <c r="L6" s="29"/>
       <c r="M6" s="29" t="s">
@@ -1910,7 +1918,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E7" s="29">
         <v>167</v>
@@ -1928,10 +1936,10 @@
         <v>27</v>
       </c>
       <c r="J7" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" s="31" t="s">
         <v>73</v>
-      </c>
-      <c r="K7" s="31" t="s">
-        <v>74</v>
       </c>
       <c r="L7" s="29"/>
       <c r="M7" s="29" t="s">
@@ -1965,16 +1973,16 @@
         <v>0.5</v>
       </c>
       <c r="H8" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="J8" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="I8" s="31" t="s">
+      <c r="K8" s="31" t="s">
         <v>77</v>
-      </c>
-      <c r="J8" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="K8" s="31" t="s">
-        <v>78</v>
       </c>
       <c r="L8" s="29"/>
       <c r="M8" s="29" t="s">
@@ -1996,7 +2004,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E9" s="29">
         <v>60</v>
@@ -2008,16 +2016,16 @@
         <v>0.5</v>
       </c>
       <c r="H9" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="I9" s="31" t="s">
+      <c r="J9" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="J9" s="31" t="s">
+      <c r="K9" s="31" t="s">
         <v>82</v>
-      </c>
-      <c r="K9" s="31" t="s">
-        <v>83</v>
       </c>
       <c r="L9" s="29"/>
       <c r="M9" s="29" t="s">
@@ -2039,7 +2047,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E10" s="29">
         <v>700</v>
@@ -2051,13 +2059,13 @@
         <v>0.5</v>
       </c>
       <c r="H10" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="I10" s="31" t="s">
+      <c r="J10" s="31" t="s">
         <v>86</v>
-      </c>
-      <c r="J10" s="31" t="s">
-        <v>87</v>
       </c>
       <c r="K10" s="31">
         <v>107.5206622</v>
@@ -2131,7 +2139,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="72" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B1" s="72"/>
       <c r="C1" s="72"/>
@@ -2228,16 +2236,16 @@
         <v>9</v>
       </c>
       <c r="D5" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="F5" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="G5" s="45" t="s">
         <v>91</v>
-      </c>
-      <c r="G5" s="45" t="s">
-        <v>92</v>
       </c>
       <c r="H5" s="41"/>
       <c r="I5" s="41" t="s">
@@ -2293,7 +2301,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="72" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1" s="72"/>
       <c r="C1" s="72"/>
@@ -2398,10 +2406,10 @@
         <v>32</v>
       </c>
       <c r="F5" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="60" t="s">
         <v>93</v>
-      </c>
-      <c r="G5" s="60" t="s">
-        <v>94</v>
       </c>
       <c r="H5" s="54" t="s">
         <v>22</v>
@@ -2437,10 +2445,10 @@
         <v>32</v>
       </c>
       <c r="F6" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" s="68" t="s">
         <v>95</v>
-      </c>
-      <c r="G6" s="68" t="s">
-        <v>96</v>
       </c>
       <c r="H6" s="63" t="s">
         <v>22</v>
